--- a/data/trans_dic/Predimed_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R3-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>10,33%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,38; 14,17</t>
+          <t>6,91; 13,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,22; 13,98</t>
+          <t>8,15; 14,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,46; 13,18</t>
+          <t>8,16; 12,92</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,47%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 10,67</t>
+          <t>4,7; 10,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,17; 10,83</t>
+          <t>6,2; 10,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,51</t>
+          <t>5,79; 9,53</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,34%</t>
+          <t>29,15%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,9; 33,71</t>
+          <t>23,5; 33,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,92; 34,39</t>
+          <t>25,89; 34,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,33; 33,09</t>
+          <t>26,11; 32,96</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>37,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>37,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,0%</t>
+          <t>37,71%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,36; 45,28</t>
+          <t>30,12; 45,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,76; 46,42</t>
+          <t>22,91; 52,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,33; 43,99</t>
+          <t>27,75; 46,81</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>27,22%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,11; 27,85</t>
+          <t>17,17; 27,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,42; 37,2</t>
+          <t>27,22; 36,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,06; 31,05</t>
+          <t>24,03; 30,71</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>12,22%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,71; 19,65</t>
+          <t>11,56; 19,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,93; 12,47</t>
+          <t>6,94; 12,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,99; 14,66</t>
+          <t>9,98; 14,61</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>25,95%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,4; 35,6</t>
+          <t>26,87; 35,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,75; 31,13</t>
+          <t>10,27; 30,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,19; 31,77</t>
+          <t>15,08; 31,14</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,07</t>
+          <t>1,06; 4,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,72; 9,3</t>
+          <t>4,62; 8,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,87; 6,59</t>
+          <t>2,55; 5,45</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>17,22%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,5; 18,49</t>
+          <t>12,23; 17,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,59; 20,02</t>
+          <t>15,03; 20,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,53; 18,97</t>
+          <t>14,83; 18,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Predimed_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R3-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,91; 13,68</t>
+          <t>6,91; 13,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,15; 14,17</t>
+          <t>8,27; 14,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,92</t>
+          <t>8,29; 13,15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 10,9</t>
+          <t>4,48; 10,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 10,76</t>
+          <t>6,02; 10,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,53</t>
+          <t>5,87; 9,83</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,5; 33,46</t>
+          <t>23,17; 33,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,89; 34,34</t>
+          <t>25,71; 34,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,11; 32,96</t>
+          <t>26,1; 32,96</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,12; 45,1</t>
+          <t>30,59; 45,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,91; 52,53</t>
+          <t>20,02; 51,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,75; 46,81</t>
+          <t>25,98; 47,2</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,17; 27,82</t>
+          <t>16,91; 27,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,22; 36,74</t>
+          <t>27,25; 36,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,03; 30,71</t>
+          <t>24,04; 30,97</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,56; 19,52</t>
+          <t>11,55; 18,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,94; 12,46</t>
+          <t>6,92; 12,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,98; 14,61</t>
+          <t>10,15; 15,32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,87; 35,22</t>
+          <t>26,55; 35,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,27; 30,78</t>
+          <t>9,0; 30,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,08; 31,14</t>
+          <t>17,22; 31,16</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,08</t>
+          <t>1,02; 4,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,77</t>
+          <t>4,6; 9,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,45</t>
+          <t>2,44; 5,67</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,93</t>
+          <t>12,12; 17,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,77</t>
+          <t>14,88; 21,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,83; 18,86</t>
+          <t>14,82; 18,94</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con una adherencia alta a la dieta mediterránea</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>30602</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>31309</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>61911</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21430; 42151</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23904; 40513</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>49641; 78748</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>30025</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>37163</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>67188</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19736; 47266</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>27657; 48076</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>52829; 88479</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>82657</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>97311</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>179968</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>68006; 96838</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>83279; 110991</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>161122; 203510</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>90493</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>152628</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>243121</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>74227; 110191</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>80477; 207234</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>167467; 304274</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>37978</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>64691</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>102668</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>29361; 48273</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>55465; 74713</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>90670; 116788</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>40026</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>23746</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>63772</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>30835; 50606</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>17613; 31380</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>52966; 79936</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>180631</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>184555</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>365185</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>155381; 207797</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>74005; 252916</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>242384; 438554</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>24107</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>43915</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>68022</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>9317; 39531</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>32475; 63759</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>39615; 91972</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>516519</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>635318</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1151836</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>390986; 577176</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>515200; 727904</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>990921; 1266726</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>